--- a/Player.xlsx
+++ b/Player.xlsx
@@ -386,7 +386,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
         <v>10</v>
